--- a/field_data/stage_3/Mainplot.xlsx
+++ b/field_data/stage_3/Mainplot.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="107" windowWidth="15120" windowHeight="8013"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Mainplot" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="53">
   <si>
     <t>Plot-ID</t>
   </si>
@@ -119,6 +119,60 @@
   </si>
   <si>
     <t>Junger Eichen Buchen Mischwald</t>
+  </si>
+  <si>
+    <t>Department_species_age</t>
+  </si>
+  <si>
+    <t>Department_ID</t>
+  </si>
+  <si>
+    <t>Department_age</t>
+  </si>
+  <si>
+    <t>EI168</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>BU40</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>DGL36</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>DGL27</t>
+  </si>
+  <si>
+    <t>ELA41</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>ERL1</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>FI77</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>FI43</t>
   </si>
 </sst>
 </file>
@@ -454,15 +508,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +538,17 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -501,8 +567,17 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -521,8 +596,17 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -541,8 +625,17 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -561,8 +654,17 @@
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -581,8 +683,17 @@
       <c r="F6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -601,8 +712,17 @@
       <c r="F7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -621,8 +741,17 @@
       <c r="F8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -641,8 +770,17 @@
       <c r="F9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -661,8 +799,17 @@
       <c r="F10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -681,8 +828,17 @@
       <c r="F11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -701,8 +857,17 @@
       <c r="F12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -721,8 +886,17 @@
       <c r="F13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -741,8 +915,17 @@
       <c r="F14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -761,8 +944,17 @@
       <c r="F15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -781,8 +973,17 @@
       <c r="F16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -793,7 +994,7 @@
         <v>477119</v>
       </c>
       <c r="D17">
-        <v>5632272</v>
+        <v>5632723</v>
       </c>
       <c r="E17" s="1">
         <v>245</v>
@@ -801,8 +1002,17 @@
       <c r="F17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -821,8 +1031,17 @@
       <c r="F18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -840,6 +1059,15 @@
       </c>
       <c r="F19" t="s">
         <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/field_data/stage_3/Mainplot.xlsx
+++ b/field_data/stage_3/Mainplot.xlsx
@@ -115,9 +115,6 @@
     <t>Douglasienforst</t>
   </si>
   <si>
-    <t>Waldlichtung mit Lärchen</t>
-  </si>
-  <si>
     <t>Junger Eichen Buchen Mischwald</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>FI43</t>
+  </si>
+  <si>
+    <t>Waldlichtung mit Laerchen</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -539,13 +539,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -568,10 +568,10 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
       </c>
       <c r="I2">
         <v>168</v>
@@ -597,10 +597,10 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
         <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
       </c>
       <c r="I3">
         <v>168</v>
@@ -626,10 +626,10 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
         <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>41</v>
       </c>
       <c r="I4">
         <v>40</v>
@@ -655,10 +655,10 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
         <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
       </c>
       <c r="I5">
         <v>40</v>
@@ -684,10 +684,10 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
         <v>40</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
       </c>
       <c r="I6">
         <v>40</v>
@@ -713,10 +713,10 @@
         <v>32</v>
       </c>
       <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
         <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
       </c>
       <c r="I7">
         <v>36</v>
@@ -742,10 +742,10 @@
         <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8">
         <v>27</v>
@@ -771,10 +771,10 @@
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9">
         <v>27</v>
@@ -800,10 +800,10 @@
         <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10">
         <v>27</v>
@@ -826,13 +826,13 @@
         <v>389</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="s">
         <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
       </c>
       <c r="I11">
         <v>41</v>
@@ -855,13 +855,13 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
         <v>38</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
       </c>
       <c r="I12">
         <v>168</v>
@@ -887,10 +887,10 @@
         <v>9</v>
       </c>
       <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
         <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
       </c>
       <c r="I13">
         <v>168</v>
@@ -916,10 +916,10 @@
         <v>9</v>
       </c>
       <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
         <v>38</v>
-      </c>
-      <c r="H14" t="s">
-        <v>39</v>
       </c>
       <c r="I14">
         <v>168</v>
@@ -942,13 +942,13 @@
         <v>313</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -974,13 +974,13 @@
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1003,10 +1003,10 @@
         <v>19</v>
       </c>
       <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
         <v>50</v>
-      </c>
-      <c r="H17" t="s">
-        <v>51</v>
       </c>
       <c r="I17">
         <v>77</v>
@@ -1032,10 +1032,10 @@
         <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18">
         <v>43</v>
@@ -1061,10 +1061,10 @@
         <v>19</v>
       </c>
       <c r="G19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s">
         <v>50</v>
-      </c>
-      <c r="H19" t="s">
-        <v>51</v>
       </c>
       <c r="I19">
         <v>77</v>

--- a/field_data/stage_3/Mainplot.xlsx
+++ b/field_data/stage_3/Mainplot.xlsx
@@ -511,7 +511,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -739,7 +739,7 @@
         <v>301</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
         <v>43</v>
@@ -768,7 +768,7 @@
         <v>331</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
         <v>43</v>
